--- a/Data/AllResults_CLINDAMYCIN 600MG.xlsx
+++ b/Data/AllResults_CLINDAMYCIN 600MG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="320">
   <si>
     <t>Molecule</t>
   </si>
@@ -1057,6 +1057,30 @@
   <si>
     <t>USES OF CLIDEN INJECTION
 Treatment of Bacterial infections</t>
+  </si>
+  <si>
+    <t>₹412.83</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul//a//b[normalize-space()='Clin 600mg Injection']"}
+  (Session info: chrome=117.0.5938.92)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.12.0', revision: '249f2a7d1b*'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '15'
+Driver info: org.openqa.selenium.remote.RemoteWebDriver
+Command: [02540a134ea599677cf2a941610bd2ab, findElement {using=xpath, value=//ul//a//b[normalize-space()='Clin 600mg Injection']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: /tmp/.org.chromium.Chromium...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:41081}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: linux, proxy: Proxy(), se:bidiEnabled: false, se:cdp: ws://172.19.0.5:4444/sessio..., se:cdpVersion: 117.0.5938.92, se:vnc: ws://172.19.0.5:4444/sessio..., se:vncEnabled: true, se:vncLocalAddress: ws://172.19.0.5:7900, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 02540a134ea599677cf2a941610bd2ab Element not found when fetching element - Clin 600mg Injection</t>
+  </si>
+  <si>
+    <t>Kestrel Lifesciences</t>
+  </si>
+  <si>
+    <t>USES OF KEMYCIN INJECTION
+Treatment of Bacterial infections</t>
+  </si>
+  <si>
+    <t>₹360</t>
   </si>
 </sst>
 </file>
@@ -1144,16 +1168,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -1165,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -1176,16 +1200,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1197,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -1208,16 +1232,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -1229,7 +1253,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -1240,16 +1264,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1261,7 +1285,7 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -1272,16 +1296,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1293,7 +1317,7 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -1304,16 +1328,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1325,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -1336,16 +1360,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1357,7 +1381,7 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -1368,16 +1392,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -1389,7 +1413,7 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -1400,16 +1424,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1421,7 +1445,7 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
@@ -1432,16 +1456,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -1453,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -1464,16 +1488,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1485,7 +1509,7 @@
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
@@ -1496,16 +1520,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1517,7 +1541,7 @@
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
@@ -1528,16 +1552,16 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1549,7 +1573,7 @@
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
@@ -1560,16 +1584,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1581,7 +1605,7 @@
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1592,16 +1616,16 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -1613,7 +1637,7 @@
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
@@ -1624,16 +1648,16 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1645,7 +1669,7 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
@@ -1656,16 +1680,16 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1677,7 +1701,7 @@
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
         <v>18</v>
@@ -1688,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
         <v>81</v>
@@ -1697,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1709,7 +1733,7 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
@@ -1720,16 +1744,16 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1741,7 +1765,7 @@
         <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J20" t="s">
         <v>18</v>
@@ -1752,16 +1776,16 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -1773,7 +1797,7 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="J21" t="s">
         <v>18</v>
@@ -1784,16 +1808,16 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -1805,7 +1829,7 @@
         <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="J22" t="s">
         <v>18</v>
@@ -1816,16 +1840,16 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -1837,7 +1861,7 @@
         <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="J23" t="s">
         <v>18</v>
@@ -1848,16 +1872,16 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1869,7 +1893,7 @@
         <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="J24" t="s">
         <v>18</v>
@@ -1880,16 +1904,16 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1901,7 +1925,7 @@
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s">
         <v>18</v>
@@ -1912,16 +1936,16 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -1933,7 +1957,7 @@
         <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s">
         <v>18</v>
@@ -1944,16 +1968,16 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -1962,10 +1986,10 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I27" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="J27" t="s">
         <v>18</v>
@@ -1976,16 +2000,16 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -1997,7 +2021,7 @@
         <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
         <v>18</v>
@@ -2008,16 +2032,16 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -2029,7 +2053,7 @@
         <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="J29" t="s">
         <v>18</v>
@@ -2040,16 +2064,16 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -2061,7 +2085,7 @@
         <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="J30" t="s">
         <v>18</v>
@@ -2072,16 +2096,16 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -2093,7 +2117,7 @@
         <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="J31" t="s">
         <v>18</v>
@@ -2104,16 +2128,16 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -2125,7 +2149,7 @@
         <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
         <v>18</v>
@@ -2136,16 +2160,16 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -2157,7 +2181,7 @@
         <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s">
         <v>18</v>
@@ -2168,16 +2192,16 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -2189,7 +2213,7 @@
         <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="J34" t="s">
         <v>18</v>
@@ -2200,16 +2224,16 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -2221,7 +2245,7 @@
         <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
         <v>18</v>
@@ -2232,16 +2256,16 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -2253,7 +2277,7 @@
         <v>16</v>
       </c>
       <c r="I36" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
         <v>18</v>
@@ -2264,16 +2288,16 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -2285,7 +2309,7 @@
         <v>16</v>
       </c>
       <c r="I37" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s">
         <v>18</v>
@@ -2296,16 +2320,16 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -2317,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="I38" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="J38" t="s">
         <v>18</v>
@@ -2328,16 +2352,16 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -2346,10 +2370,10 @@
         <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="J39" t="s">
         <v>18</v>
@@ -2395,7 +2419,7 @@
         <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>315</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -2424,31 +2448,13 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s">
-        <v>171</v>
-      </c>
-      <c r="J42" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43">
@@ -2456,16 +2462,16 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -2477,7 +2483,7 @@
         <v>16</v>
       </c>
       <c r="I43" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="J43" t="s">
         <v>18</v>
@@ -2488,16 +2494,16 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -2509,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="I44" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="J44" t="s">
         <v>18</v>
@@ -2520,16 +2526,16 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -2541,7 +2547,7 @@
         <v>16</v>
       </c>
       <c r="I45" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="J45" t="s">
         <v>18</v>
@@ -2552,16 +2558,16 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="C46" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -2573,7 +2579,7 @@
         <v>16</v>
       </c>
       <c r="I46" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="J46" t="s">
         <v>18</v>
@@ -2584,16 +2590,16 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -2602,10 +2608,10 @@
         <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I47" t="s">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="J47" t="s">
         <v>18</v>
@@ -2616,16 +2622,16 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="C48" t="s">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2637,7 +2643,7 @@
         <v>16</v>
       </c>
       <c r="I48" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="J48" t="s">
         <v>18</v>
@@ -2648,16 +2654,16 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -2666,10 +2672,10 @@
         <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="I49" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="J49" t="s">
         <v>18</v>
@@ -2680,16 +2686,16 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
@@ -2701,7 +2707,7 @@
         <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="J50" t="s">
         <v>18</v>
@@ -2712,16 +2718,16 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -2733,7 +2739,7 @@
         <v>16</v>
       </c>
       <c r="I51" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="J51" t="s">
         <v>18</v>
@@ -2744,16 +2750,16 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2765,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="I52" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="J52" t="s">
         <v>18</v>
@@ -2776,16 +2782,16 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -2797,7 +2803,7 @@
         <v>16</v>
       </c>
       <c r="I53" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J53" t="s">
         <v>18</v>
@@ -2808,16 +2814,16 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>291</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -2829,7 +2835,7 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="J54" t="s">
         <v>18</v>
@@ -2840,13 +2846,31 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>223</v>
+      </c>
+      <c r="I55" t="s">
+        <v>224</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -2854,16 +2878,16 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -2872,10 +2896,10 @@
         <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="J56" t="s">
         <v>18</v>
@@ -2886,16 +2910,16 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2907,7 +2931,7 @@
         <v>16</v>
       </c>
       <c r="I57" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="J57" t="s">
         <v>18</v>
@@ -2918,16 +2942,16 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2939,7 +2963,7 @@
         <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="J58" t="s">
         <v>18</v>
@@ -2950,7 +2974,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
         <v>169</v>
@@ -2959,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2968,10 +2992,10 @@
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I59" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="J59" t="s">
         <v>18</v>
@@ -2982,16 +3006,16 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -3003,7 +3027,7 @@
         <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="J60" t="s">
         <v>18</v>
@@ -3014,16 +3038,16 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -3035,7 +3059,7 @@
         <v>16</v>
       </c>
       <c r="I61" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="J61" t="s">
         <v>18</v>
@@ -3046,16 +3070,16 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="C62" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -3067,7 +3091,7 @@
         <v>16</v>
       </c>
       <c r="I62" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="J62" t="s">
         <v>18</v>
@@ -3078,16 +3102,16 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -3096,10 +3120,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="I63" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="J63" t="s">
         <v>18</v>
@@ -3110,16 +3134,16 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="C64" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -3131,7 +3155,7 @@
         <v>16</v>
       </c>
       <c r="I64" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="J64" t="s">
         <v>18</v>
@@ -3142,16 +3166,16 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -3163,7 +3187,7 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="J65" t="s">
         <v>18</v>
@@ -3174,16 +3198,16 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C66" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -3195,7 +3219,7 @@
         <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="J66" t="s">
         <v>18</v>
@@ -3206,13 +3230,31 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>265</v>
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>182</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s">
+        <v>183</v>
+      </c>
+      <c r="J67" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -3220,16 +3262,16 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -3241,7 +3283,7 @@
         <v>16</v>
       </c>
       <c r="I68" t="s">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="J68" t="s">
         <v>18</v>
@@ -3252,16 +3294,16 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -3270,10 +3312,10 @@
         <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I69" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="J69" t="s">
         <v>18</v>
@@ -3284,16 +3326,16 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -3305,7 +3347,7 @@
         <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="J70" t="s">
         <v>18</v>
@@ -3316,16 +3358,16 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -3334,10 +3376,10 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="I71" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="J71" t="s">
         <v>18</v>
@@ -3348,16 +3390,16 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -3369,7 +3411,7 @@
         <v>16</v>
       </c>
       <c r="I72" t="s">
-        <v>283</v>
+        <v>203</v>
       </c>
       <c r="J72" t="s">
         <v>18</v>
@@ -3380,16 +3422,16 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="C73" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>49</v>
+        <v>313</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
@@ -3401,7 +3443,7 @@
         <v>16</v>
       </c>
       <c r="I73" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="J73" t="s">
         <v>18</v>
@@ -3412,16 +3454,16 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -3433,7 +3475,7 @@
         <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="J74" t="s">
         <v>18</v>
@@ -3444,16 +3486,16 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
       <c r="C75" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -3465,7 +3507,7 @@
         <v>16</v>
       </c>
       <c r="I75" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="J75" t="s">
         <v>18</v>
@@ -3476,16 +3518,16 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="C76" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -3497,7 +3539,7 @@
         <v>16</v>
       </c>
       <c r="I76" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="J76" t="s">
         <v>18</v>
@@ -3508,16 +3550,16 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -3529,7 +3571,7 @@
         <v>16</v>
       </c>
       <c r="I77" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="J77" t="s">
         <v>18</v>
@@ -3540,16 +3582,16 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="C78" t="s">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -3561,7 +3603,7 @@
         <v>16</v>
       </c>
       <c r="I78" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="J78" t="s">
         <v>18</v>
@@ -3572,16 +3614,16 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="C79" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
@@ -3593,7 +3635,7 @@
         <v>16</v>
       </c>
       <c r="I79" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="J79" t="s">
         <v>18</v>
@@ -3604,16 +3646,16 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -3625,7 +3667,7 @@
         <v>16</v>
       </c>
       <c r="I80" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="J80" t="s">
         <v>18</v>
@@ -3636,16 +3678,16 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="C81" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -3657,7 +3699,7 @@
         <v>16</v>
       </c>
       <c r="I81" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="J81" t="s">
         <v>18</v>
